--- a/Methods/methods.xlsx
+++ b/Methods/methods.xlsx
@@ -1,159 +1,305 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CircularAlgo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FingerKnn1" sheetId="5" state="visible" r:id="rId6"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Real X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-  </cellStyles>
-</styleSheet>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -173,7 +319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -181,19 +327,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3.67</v>
+        <v>4.4</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>5.63</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>4.93526458740234E-005</v>
+        <v>6.93798065185547e-05</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2.55162693197889</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9.888629834309709</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -201,19 +347,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2.17</v>
+        <v>3.9</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4.74452972412109E-005</v>
+        <v>0.000135421752929688</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.21198184804889</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.85146931829632</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -221,19 +367,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4.62532043457031E-005</v>
+        <v>6.91413879394531e-05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2.95447118787779</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.85146931829632</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -241,19 +387,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3.67</v>
+        <v>1.1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>4.33</v>
+        <v>1.3</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4.64916229248047E-005</v>
+        <v>6.81877136230469e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.67475371323667</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.31566912540802</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -261,19 +407,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2.6</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4.57763671875E-005</v>
+        <v>7.03334808349609e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2.55440795488896</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.31566912540802</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -281,19 +427,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>4.03</v>
+        <v>5.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4.64916229248047E-005</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1.67475371323667</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.37120156620752</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -307,13 +453,13 @@
         <v>2.6</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>4.57763671875E-005</v>
+        <v>6.866455078125e-05</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -321,19 +467,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>2.93</v>
+        <v>4.4</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>3.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>4.60147857666016E-005</v>
+        <v>6.60419464111328e-05</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1.95829007044411</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.55440795488896</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -341,19 +487,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>5.13</v>
+        <v>4.4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.1</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>4.48226928710938E-005</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4.76160687163483</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7.66061355245127</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -361,19 +507,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>5.63</v>
+        <v>3.9</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>4.88758087158203E-005</v>
+        <v>6.58035278320312e-05</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.29876864760434</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.55440795488896</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -381,39 +527,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>4.03</v>
+        <v>2.2</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>7.8</v>
+        <v>10.4</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>4.67300415039063E-005</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1.12645461515322</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.2573465914816</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>4.79221343994141E-005</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.851469318296319</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.58312120721239</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -421,19 +567,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2.93</v>
+        <v>2.2</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>4.50611114501953E-005</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1.12645461515323</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.64485939372152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -441,19 +587,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3.67</v>
+        <v>4.4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.000120401382446289</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1.12645461515323</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.64485939372152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -461,19 +607,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>4.03</v>
+        <v>5.5</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2.6</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>5.03063201904297E-005</v>
+        <v>6.77108764648437e-05</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>7.53570832768891</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>8.12065268312837</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -481,19 +627,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>4.86373901367188E-005</v>
+        <v>6.866455078125e-05</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.851469318296321</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.64485939372152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -501,19 +647,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>4.52995300292969E-005</v>
+        <v>6.77108764648437e-05</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.67446274915669</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.02607995893548</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -521,46 +667,52 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.000115156173706055</v>
+        <v>6.91413879394531e-05</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.851469318296321</v>
-      </c>
-    </row>
+        <v>2.55440795488896</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -588,19 +740,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3.84</v>
+        <v>3.3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.07</v>
+        <v>11.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>5.05447387695313E-005</v>
+        <v>6.91413879394531e-05</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>3.97246774687977</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8.46788049041789</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -608,19 +760,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4.69684600830078E-005</v>
+        <v>6.72340393066406e-05</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.13648581161403</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.85146931829632</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -628,19 +780,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>4.42</v>
+        <v>3.3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>4.29</v>
+        <v>2.6</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4.9591064453125E-005</v>
+        <v>6.81877136230469e-05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2.95880043260778</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.77341478509682</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -648,19 +800,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3.58</v>
+        <v>2.75</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>4.27</v>
+        <v>5.2</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>5.05447387695313E-005</v>
+        <v>6.98566436767578e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.70801053860917</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.93981291921782</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -668,19 +820,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3.69</v>
+        <v>3.3</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4.91142272949219E-005</v>
+        <v>9.79900360107422e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2.74052914598623</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.10059515376</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -688,19 +840,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>4.22</v>
+        <v>5.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>5.17368316650391E-005</v>
+        <v>6.81877136230469e-05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1.89129585205488</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.04179223485103</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -711,16 +863,16 @@
         <v>5.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>4.88758087158203E-005</v>
+        <v>7.86781311035156e-05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>2.69432737431812</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.07936681803256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -728,19 +880,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>3.66</v>
+        <v>2.75</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>3.93</v>
+        <v>3.25</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>4.93526458740234E-005</v>
+        <v>7.12871551513672e-05</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2.12473527762872</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -748,19 +900,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>5.05</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.51</v>
+        <v>11.7</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>9.79900360107422E-005</v>
+        <v>6.866455078125e-05</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4.99555802688749</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.07823987680644</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -768,19 +920,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>4.86373901367188E-005</v>
+        <v>8.48770141601563e-05</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.51713545868522</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.77341478509682</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -788,39 +940,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>4.09</v>
+        <v>3.3</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>8.29</v>
+        <v>11.7</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>4.83989715576172E-005</v>
+        <v>6.65187835693359e-05</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1.42800560222991</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.83993801613202</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>6.64</v>
+        <v>5.2</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>5.340576171875E-005</v>
+        <v>6.72340393066406e-05</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1.89171879517015</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2962099447699</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -828,19 +980,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2.83</v>
+        <v>3.3</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>11.08</v>
+        <v>12.35</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>4.88758087158203E-005</v>
+        <v>8.48770141601563e-05</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1.67609665592412</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.65753645318366</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -848,19 +1000,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>10.79</v>
+        <v>11.7</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4.76837158203125E-005</v>
+        <v>7.17639923095703e-05</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1.61074516916861</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.23886131772381</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -868,19 +1020,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>4.27</v>
+        <v>5.5</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2.69</v>
+        <v>3.25</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4.79221343994141E-005</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>7.5304714327856</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.55463433926487</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -888,19 +1040,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>7.00950622558594E-005</v>
+        <v>6.93798065185547e-05</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.838689453850471</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.02607995893548</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -908,19 +1060,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2.57</v>
+        <v>3.85</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>13</v>
+        <v>11.05</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>4.88758087158203E-005</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.67446274915669</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.70293863659264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -928,46 +1080,51 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>4.88758087158203E-005</v>
+        <v>6.84261322021484e-05</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.686221538571911</v>
+        <v>0.851469318296321</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -995,19 +1152,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.06105836645013</v>
+        <v>4.03</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.97580775241025</v>
+        <v>8.67</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0492846965789795</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5.96970671466358</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.56909328347084</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1015,19 +1172,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.788990660380585</v>
+        <v>4.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-8.81588671134959</v>
+        <v>2.17</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.000198602676391602</v>
+        <v>6.77108764648437e-05</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>12.4481083024032</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.21198184804889</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1035,19 +1192,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.97884449524528</v>
+        <v>3.67</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>4.03067426817395</v>
+        <v>3.03</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.000198841094970703</v>
+        <v>6.89029693603516e-05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.847107440081863</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.0319448811422</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1055,19 +1212,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>11.0020839330125</v>
+        <v>3.67</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>11.285370558235</v>
+        <v>4.33</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.000196218490600586</v>
+        <v>6.72340393066406e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10.0595675821765</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.67475371323667</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1075,19 +1232,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>4.33518520927928</v>
+        <v>2.93</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>7.14205014051278</v>
+        <v>4.77</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.000194311141967773</v>
+        <v>6.77108764648437e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>7.02544906999291</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.31425543981809</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1095,19 +1252,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3.03676311318553</v>
+        <v>4.03</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>4.61556058973225</v>
+        <v>1.73</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.000192165374755859</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3.97591547620437</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.67475371323667</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1115,19 +1272,19 @@
         <v>0.65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-5.17283021332336</v>
+        <v>4.4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.93499469387509</v>
+        <v>5.63</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.000192403793334961</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>10.4567028251141</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.01027943332505</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1135,19 +1292,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>11.140699903547</v>
+        <v>2.93</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>5.72901414132512</v>
+        <v>4.33</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.000206708908081055</v>
+        <v>7.58171081542969e-05</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>8.39157210833482</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.5306207890918</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1155,19 +1312,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-25.312661914956</v>
+        <v>4.03</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>27.9358050147304</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.000196456909179688</v>
+        <v>6.84261322021484e-05</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>34.8535209224106</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.75802480027164</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1175,19 +1332,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.74283920645853</v>
+        <v>2.57</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>6.34090271821901</v>
+        <v>5.63</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.00019383430480957</v>
+        <v>0.000152587890625</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.21111126718819</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.29876864760434</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1195,39 +1352,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>1.46086603943352</v>
+        <v>3.67</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>6.69689434767336</v>
+        <v>9.1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.000209331512451172</v>
+        <v>6.65187835693359e-05</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>3.51843154359278</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.33257368586718</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>11.5365645905305</v>
+        <v>3.3</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7.71439472432885</v>
+        <v>4.33</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.000200748443603516</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>6.62751448333575</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.43811897091549</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1235,19 +1392,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-4.14614090336185</v>
+        <v>3.67</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>21.7891041170358</v>
+        <v>11.7</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.000194787979125977</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>14.4526225055262</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.95829007044411</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1255,19 +1412,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3.07672190007484</v>
+        <v>4.4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>10.0760516014315</v>
+        <v>10.83</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.000203609466552734</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.461580812842701</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.97202941154538</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1275,19 +1432,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>4.09530757173021</v>
+        <v>4.03</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>10.8430790033814</v>
+        <v>2.6</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.000193595886230469</v>
+        <v>7.20024108886719e-05</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>2.67849786783459</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7.53570832768891</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1295,19 +1452,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-0.949635605769483</v>
+        <v>3.3</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>27.2551160332753</v>
+        <v>11.27</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.000190019607543945</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>15.6588309242284</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.21198184804889</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1315,19 +1472,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-8.26880010915562</v>
+        <v>3.3</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>21.9164012068758</v>
+        <v>11.7</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.000201225280761719</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>14.5921207470485</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.85146931829632</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1335,46 +1492,52 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-3.34753067450765</v>
+        <v>2.57</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>16.7794185782829</v>
+        <v>11.7</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.000197172164916992</v>
+        <v>6.50882720947266e-05</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>6.67795341285657</v>
-      </c>
-    </row>
+        <v>1.12645461515323</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F16" activeCellId="0" pane="topLeft" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1402,19 +1565,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-0.0527086076242103</v>
+        <v>3.3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>10.1030430002657</v>
+        <v>6.83</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.00260162353515625</v>
+        <v>7.27176666259766e-05</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>7.40401066333248</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.62200220872379</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1422,19 +1585,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.83663428453213</v>
+        <v>4.12</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-3.15902208850213</v>
+        <v>1.95</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.00318527221679688</v>
+        <v>6.89029693603516e-05</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>6.48864193835613</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.32774244490413</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1442,19 +1605,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>7.76939798875047</v>
+        <v>3.58</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.40298915932445</v>
+        <v>3.9</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.00382089614868164</v>
+        <v>6.98566436767578e-05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>6.39206389128709</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.03651663386283</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1462,19 +1625,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>10.6449206286134</v>
+        <v>3.58</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>10.8871996042048</v>
+        <v>5.53</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.00329136848449707</v>
+        <v>7.31945037841797e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>9.52674859333825</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.65994360842481</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1482,19 +1645,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>8.76000602109702</v>
+        <v>2.75</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5.78167549482611</v>
+        <v>5.85</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.00282359123229981</v>
+        <v>7.15255737304687e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>8.76848213798914</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.31507290636732</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1502,19 +1665,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>-0.942102780924895</v>
+        <v>3.85</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>4.15700553341953</v>
+        <v>2.27</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.00284934043884277</v>
+        <v>7.10487365722656e-05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5.09222061151601</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.95816240388789</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1522,19 +1685,19 @@
         <v>0.65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-6.04898906055351</v>
+        <v>4.67</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>6.38606198496126</v>
+        <v>4.55</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.00329136848449707</v>
+        <v>7.15255737304687e-05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>11.4408212780497</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.98527288902529</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1542,19 +1705,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>7.48891358199311</v>
+        <v>2.48</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>5.68122126496879</v>
+        <v>3.58</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.00236415863037109</v>
+        <v>7.31945037841797e-05</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4.74191819826085</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.28600087489047</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1562,19 +1725,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-4.65087385527982</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>16.9825529568282</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0054621696472168</v>
+        <v>7.86781311035156e-05</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>12.791979779406</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.36264776626991</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1582,19 +1745,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.42029420223357</v>
+        <v>3.03</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>6.27148529822565</v>
+        <v>5.52</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.0032196044921875</v>
+        <v>6.98566436767578e-05</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.49053967568372</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.883911760301898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1602,39 +1765,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>6.54089396052354</v>
+        <v>3.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>5.96869907754001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.00279521942138672</v>
+        <v>7.03334808349609e-05</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1.9815184740585</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.88862383761299</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>5.78625754358978</v>
+        <v>3.58</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7.95284765815136</v>
+        <v>6.5</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.00259852409362793</v>
+        <v>6.89029693603516e-05</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.972875701318721</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.38314917703445</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1642,19 +1805,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>4.34559595342197</v>
+        <v>4.12</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>17.4475330832255</v>
+        <v>11.05</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.00375437736511231</v>
+        <v>6.98566436767578e-05</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>7.71347074386093</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.32774244490413</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1662,19 +1825,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2.2562842913007</v>
+        <v>3.57</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>10.0860596086276</v>
+        <v>10.4</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.00298714637756348</v>
+        <v>6.72340393066406e-05</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.597236353186417</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.0463746938836</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1682,19 +1845,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>10.4483268850017</v>
+        <v>3.58</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>10.431273022818</v>
+        <v>4.55</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.00372600555419922</v>
+        <v>7.03334808349609e-05</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>8.82466367103947</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.54661157825208</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1702,19 +1865,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.726367581089597</v>
+        <v>3.3</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>20.3545052997612</v>
+        <v>11.05</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.00897431373596191</v>
+        <v>7.10487365722656e-05</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>8.59239108644228</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.41155942134931</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1722,19 +1885,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-0.615660435653895</v>
+        <v>3.58</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>16.2931776910008</v>
+        <v>12.03</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.00498056411743164</v>
+        <v>7.15255737304687e-05</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>5.18423769429342</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.889550448260243</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1742,46 +1905,51 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-2.55223366494652</v>
+        <v>2.48</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>15.4970698110332</v>
+        <v>12.02</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.0074002742767334</v>
+        <v>7.20024108886719e-05</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>5.25003011137327</v>
+        <v>0.893196506934504</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1809,19 +1977,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4.4</v>
+        <v>3.94</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>13</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>5.00679016113281E-005</v>
+        <v>7.03334808349609e-05</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9.88862983430971</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>6.40157793047933</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1829,19 +1997,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.3</v>
+        <v>4.39</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4.62532043457031E-005</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.85146931829632</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.13648581161403</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1849,19 +2017,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>5.5</v>
+        <v>3.53</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4.67300415039063E-005</v>
+        <v>6.866455078125e-05</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>3.90448460107093</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.8965494984313</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1869,19 +2037,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1.1</v>
+        <v>3.58</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.3</v>
+        <v>4.27</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4.55379486083984E-005</v>
+        <v>7.15255737304687e-05</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>4.31566912540802</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.70801053860917</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1889,19 +2057,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>5.5</v>
+        <v>3.39</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2.6</v>
+        <v>4.18</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4.60147857666016E-005</v>
+        <v>6.91413879394531e-05</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4.31566912540802</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.9355431645454</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1909,19 +2077,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5.5</v>
+        <v>4.22</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>2.6</v>
+        <v>1.84</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4.62532043457031E-005</v>
+        <v>7.29560852050781e-05</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3.37120156620752</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.89129585205488</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1929,19 +2097,19 @@
         <v>0.65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5.5</v>
+        <v>4.71</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2.6</v>
+        <v>4.95</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>4.74452972412109E-005</v>
+        <v>6.89029693603516e-05</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>2.55440795488896</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.3851567816898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1949,19 +2117,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>4.4</v>
+        <v>3.27</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>4.60147857666016E-005</v>
+        <v>7.41481781005859e-05</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2.55440795488896</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.00848201386022</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1969,19 +2137,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>4.4</v>
+        <v>4.02</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>13</v>
+        <v>10.22</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>4.67300415039063E-005</v>
+        <v>7.12871551513672e-05</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>7.66061355245127</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.97129761732287</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1989,19 +2157,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3.9</v>
+        <v>5.29</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>4.83989715576172E-005</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>2.55440795488896</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.51713545868522</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2009,39 +2177,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>13</v>
+        <v>9.85</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>4.74452972412109E-005</v>
+        <v>7.72476196289062e-05</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>5.87579781816904</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.30151480384384</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>4.4</v>
+        <v>3.64</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>3.9</v>
+        <v>4.48</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>4.74452972412109E-005</v>
+        <v>6.89029693603516e-05</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>4.58312120721239</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.18055020302352</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2049,19 +2217,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2.2</v>
+        <v>3.44</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>5.31673431396484E-005</v>
+        <v>6.84261322021484e-05</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3.64485939372152</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.18874393203042</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2069,19 +2237,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>4.4</v>
+        <v>4.32</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4.83989715576172E-005</v>
+        <v>6.74724578857422e-05</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>3.64485939372152</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.0068383093812</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2089,19 +2257,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>5.5</v>
+        <v>4.27</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4.60147857666016E-005</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>8.12065268312837</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7.5304714327856</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2109,19 +2277,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>13</v>
+        <v>10.06</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>4.69684600830078E-005</v>
+        <v>7.39097595214844e-05</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.851469318296321</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.54049207831869</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2129,19 +2297,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2.2</v>
+        <v>3.44</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>13</v>
+        <v>11.53</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>4.72068786621094E-005</v>
+        <v>6.93798065185547e-05</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.85146931829632</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.07168092266309</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2149,25 +2317,855 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>1.1</v>
+        <v>2.69</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>13</v>
+        <v>11.45</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>4.67300415039063E-005</v>
+        <v>6.79492950439453e-05</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.85146931829632</v>
-      </c>
-    </row>
+        <v>1.37535449975634</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>7.36713409423828e-05</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>4.77445284823298</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>6.84261322021484e-05</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1.23490890352285</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>7.12871551513672e-05</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1.90420587122296</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>6.89029693603516e-05</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2.58213090295593</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>7.46250152587891e-05</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4.65842247976716</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.000151872634887695</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2.02071769428587</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>6.96182250976562e-05</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3.74862641510194</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>6.89029693603516e-05</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.27378539004894</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>6.93798065185547e-05</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3.73530453912395</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>7.27176666259766e-05</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.20353645561736</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>6.91413879394531e-05</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2.92697796370249</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+      <c r="A13" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>7.10487365722656e-05</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2.85029823001032</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>9.39369201660156e-05</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1.63012269476871</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>7.00950622558594e-05</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1.3877319625922</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>6.96182250976562e-05</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>6.07783678622584</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>6.93798065185547e-05</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2.47872951327893</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>6.98566436767578e-05</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1.02396288995256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>7.08103179931641e-05</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1.17889779031093</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.66931893319866</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>8.193428015351801</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.000214338302612305</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5.06017313054682</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.930058501866501</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-5.08947644873305</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.000194549560546875</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>8.83588851171716</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1.17925873178072</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>4.24277684892561</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.000197887420654297</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1.0987279978991</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>6.81986614523879</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>9.54585996826885</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.000195026397705078</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>6.56766717649124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.7606668318794</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>6.74949099987825</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.000236034393310547</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6.19978800194271</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2.47089409027441</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5.08510473248561</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.0001983642578125</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4.44387827206822</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-2.46592999746089</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>5.7706557636954</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.000197172164916992</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8.13093396745375</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6.727274225714</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>5.88044814549354</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.000194311141967773</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>3.97739077236483</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-17.0517413000674</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>21.9994714346168</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.000216007232666016</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>24.709523574366</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2.96166961477637</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>6.33201339498666</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.000175714492797852</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.01067689508474</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2.19245533434216</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>6.31796782784971</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.000253438949584961</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2.88033507054147</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+      <c r="A13" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>7.2215343250765</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>7.56051552825167</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.000176429748535156</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2.43947757019452</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-2.47785528914652</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>17.1456896533485</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.000273704528808594</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>9.733343619179699</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2.97315961791636</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>9.164330765127691</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.000176906585693359</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.626744499572588</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3.49450862479594</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>9.06693196227493</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.000175952911376953</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.96692501410404</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-4.82903436702385</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>21.4185746845695</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.000229120254516602</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>12.5524772197999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-5.47784927898253</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>17.5863043614723</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.000175714492797852</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>9.75276305072707</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-3.06059312907243</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>13.8692384925925</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.000175237655639648</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>4.94952252495522</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>